--- a/BioScope/movies.xlsx
+++ b/BioScope/movies.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="195">
   <si>
     <t>movie name</t>
   </si>
@@ -33,154 +33,574 @@
     <t>Thor the Dark World</t>
   </si>
   <si>
-    <t>When Jane Foster is possessed by a great power, Thor must protect her from a new threat of old times: the Dark Elves</t>
-  </si>
-  <si>
     <t>Chris Hemsworth| Natalie Portman| Tom Hiddleston</t>
   </si>
   <si>
     <t>Rio 2</t>
   </si>
   <si>
-    <t>It's a jungle out there for Blu, Jewel and their three kids after they're hurtled Rio de Janeiro to the wilds of the Amazon.</t>
-  </si>
-  <si>
     <t>Jesse Eisenberg| Anne Hathaway|  Jemaine Clement</t>
   </si>
   <si>
     <t>American Hustle</t>
   </si>
   <si>
-    <t>A con man, Irving Rosenfeld, along with his seductive partner Sydney Prosser, is forced to work for a wild FBI agent, Richie DiMaso, who pushes them into a world of Jersey powerbrokers and mafia.</t>
-  </si>
-  <si>
     <t>Christian Bale| Amy Adams| Bradley Cooper</t>
   </si>
   <si>
     <t>Captain America</t>
   </si>
   <si>
-    <t>Steve Rogers struggles to embrace his role in the modern world and battles a new threat from old history: the Soviet agent known as the Winter Soldier.</t>
-  </si>
-  <si>
     <t>Chris Evans| Samuel L. Jackson| Scarlett Johansson</t>
   </si>
   <si>
     <t>Stuart Little</t>
   </si>
   <si>
-    <t>The Little family adopt a charming young mouse named Stuart, but the family cat wants rid of him.</t>
-  </si>
-  <si>
     <t>Michael J. Fox| Geena Davis| Hugh Laurie</t>
   </si>
   <si>
     <t>Dallas Buyers Club</t>
   </si>
   <si>
-    <t>In 1985 Dallas, electrician and hustler Ron Woodroof works around the system to help AIDS patients get the medication they need after he is himself diagnosed with the disease.</t>
-  </si>
-  <si>
     <t>Matthew McConaughey| Jennifer Garner| Jared Leto</t>
   </si>
   <si>
     <t>Avengers</t>
   </si>
   <si>
-    <t>Nick Fury of S.H.I.E.L.D. assembles a team of superheroes to save the planet from Loki and his army.</t>
-  </si>
-  <si>
     <t>Robert Downey Jr.| Chris Evans| Scarlett Johansson</t>
   </si>
   <si>
     <t>Spider-Man</t>
   </si>
   <si>
-    <t>When bitten by a genetically modified spider, a nerdy, shy, and awkward high school student gains spider-like abilities that he eventually must use to fight evil as a superhero after tragedy befalls his family.</t>
-  </si>
-  <si>
     <t>Tobey Maguire| Kirsten Dunst| Willem Dafoe</t>
   </si>
   <si>
     <t>Twilight</t>
   </si>
   <si>
-    <t>A teenage girl risks everything when she falls in love with a vampire.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kristen Stewart| Robert Pattinson| Billy Burke </t>
   </si>
   <si>
     <t>Argo</t>
   </si>
   <si>
-    <t>Acting under the cover of a Hollywood producer scouting a location for a science fiction film, a CIA agent launches a dangerous operation to rescue six Americans in Tehran during the U.S. hostage crisis in Iran in 1980.</t>
-  </si>
-  <si>
     <t>Ben Affleck| Bryan Cranston| John Goodman</t>
   </si>
   <si>
     <t>The Godfather</t>
   </si>
   <si>
-    <t>The aging patriarch of an organized crime dynasty transfers control of his clandestine empire to his reluctant son.</t>
-  </si>
-  <si>
     <t>Marlon Brando| Al Pacino| James Caan</t>
   </si>
   <si>
     <t xml:space="preserve">12 Angry Men </t>
   </si>
   <si>
-    <t>A dissenting juror in a murder trial slowly manages to convince the others that the case is not as obviously clear as it seemed in court.</t>
-  </si>
-  <si>
     <t>Henry Fonda| Lee J. Cobb| Martin Balsam</t>
   </si>
   <si>
     <t>The Departed</t>
   </si>
   <si>
-    <t>An undercover state cop who has infiltrated an Irish gang and a mole in the police force working for the same mob race to track down and identify each other before being exposed to the enemy, after both sides realize their outfit has a rat.</t>
-  </si>
-  <si>
     <t>Leonardo DiCaprio| Matt Damon| Jack Nicholson</t>
   </si>
   <si>
     <t>Swordfish</t>
   </si>
   <si>
-    <t>A secretive renegade counter-terrorist co-opts the world's greatest hacker (who is trying to stay clean) to steal billions in US Government dirty money.</t>
-  </si>
-  <si>
     <t>John Travolta| Hugh Jackman| Halle Berry</t>
   </si>
   <si>
     <t>The Shawshank Redumption</t>
   </si>
   <si>
-    <t>Two imprisoned men bond over a number of years, finding solace and eventual redemption through acts of common decency.</t>
-  </si>
-  <si>
     <t>Tim Robbins| Morgan Freeman| Bob Gunton</t>
   </si>
   <si>
     <t>The Dark Knight</t>
   </si>
   <si>
-    <t>When Batman, Gordon and Harvey Dent launch an assault on the mob, they let the clown out of the box, the Joker, bent on turning Gotham on itself and bringing any heroes down to his level.</t>
-  </si>
-  <si>
     <t>Christian Bale| Heath Ledger| Aaron Eckhart</t>
   </si>
   <si>
     <t>Pulp Fiction</t>
   </si>
   <si>
-    <t>The lives of two mob hit men, a boxer, a gangster's wife, and a pair of diner bandits intertwine in four tales of violence and redemption.</t>
-  </si>
-  <si>
     <t>John Travolta| Uma Thurman| Samuel L. Jackson</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>Thousands of years ago, a race of beings known as Dark Elves tried to send the universe into darkness by using a weapon known as the Aether. Warriors from Asgard stop them but their leader Malekith escapes to wait for another opportunity. The warriors find the Aether and since it cannot be destroyed, they try to hide it. In the present day, Jane Foster awaits the return of Thor although it has been two years since they last saw once another. In the meantime, Thor has been trying to bring peace to the nine realms. Jane discovers an anomaly similar to the one that brought Thor to Earth. She goes to investigate, finds a wormhole, and is sucked into it. Back on Asgard, Thor wishes to return to Earth but his father, Odin refuses to let him. Thor learns from Heimdall, who can see into all of the realms, that Jane disappeared. Thor then returns to Earth just as Jane reappears. However, when some policemen try to arrest her, an unknown energy repulses them. Thor then brings Jane to Asgard</t>
+  </si>
+  <si>
+    <t>sci-fi</t>
+  </si>
+  <si>
+    <t>It's a jungle out there for Blu, Jewel and their three kids after they're hurtled Rio de Janeiro to the wilds of the Amazon. As Blu tries to fit in, he goes beak-to-beak with the vengeful Nigel, and meets the most fearsome adversary of all: his father-in-law.It's a jungle out there for Blu, Jewel and their three kids after they're hurtled Rio de Janeiro to the wilds of the Amazon. As Blu tries to fit in, he goes beak-to-beak with the vengeful Nigel, and meets the most fearsome adversary of all: his father-in-law.</t>
+  </si>
+  <si>
+    <t>animation</t>
+  </si>
+  <si>
+    <t>A fictional film set in the alluring world of one of the most stunning scandals to rock our nation, American Hustle tells the story of brilliant con man Irving Rosenfeld (Christian Bale), who along with his equally cunning and seductive British partner Sydney Prosser (Amy Adams) is forced to work for a wild FBI agent Richie DiMaso (Bradley Cooper). DiMaso pushes them into a world of Jersey powerbrokers and mafia that's as dangerous as it is enchanting. Jeremy Renner is Carmine Polito, the passionate, volatile, New Jersey political operator caught between the con-artists and Feds. Irving's unpredictable wife Rosalyn (Jennifer Lawrence) could be the one to pull the thread that brings the entire world crashing down.</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>It is 1942, America has entered World War II, and sickly but determined Steve Rogers is frustrated at being rejected yet again for military service. Everything changes when Dr. Erskine recruits him for the secret Project Rebirth. Proving his extraordinary courage, wits and conscience, Rogers undergoes the experiment and his weak body is suddenly enhanced into the maximum human potential. When Dr. Erskine is then immediately assassinated by an agent of Nazi Germany's secret HYDRA research department (headed by Johann Schmidt, a.k.a. the Red Skull), Rogers is left as a unique man who is initially misused as a propaganda mascot; however, when his comrades need him, Rogers goes on a successful adventure that truly makes him Captain America, and his war against Schmidt begins.</t>
+  </si>
+  <si>
+    <t>The adventures of a heroic and debonair stalwart mouse named Stuart Little with human qualities, who faces some comic misadventures while searching for his lost bird friend and living with a human family as their child.The adventures of a heroic and debonair stalwart mouse named Stuart Little with human qualities, who faces some comic misadventures while searching for his lost bird friend and living with a human family as their child.</t>
+  </si>
+  <si>
+    <t>Dallas 1985. Electrician and sometimes rodeo bull rider Ron Woodroof lives hard, which includes heavy smoking, drinking, drug use (primarily cocaine) and casual sex. He is racist and homophobic. While in the hospital on a work related injury, the doctors discover and inform him that he is HIV+, and that he will most-likely die within thirty days. Ron is initially in angry denial that he would have a disease that only "faggots" have, but upon quick reflection comes to the realization that the diagnosis is probably true. He begins to read whatever research is available about the disease, which at this time seems to be most effectively treated by the drug AZT. AZT, however, is only in the clinical trials stage within the US. Incredulous that he, as a dying man, cannot pay for any drug which may save or at least prolong his life, he goes searching for it by whatever means possible. It eventually leads him to Mexico and a "Dr." Vass, an American physician whose license was revoked in the</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Fury is director of S.H.I.E.L.D, an international peace keeping agency. The agency is a who's who of Marvel Super Heroes, with Iron Man, The Incredible Hulk, Thor, Captain America, Hawkeye and Black Widow. When global security is threatened by Loki and his cohorts, Nick Fury and his team will need all their powers to save the world from disaster.Nick Fury is director of S.H.I.E.L.D, an international peace keeping agency. The agency is a who's who of Marvel Super Heroes, with Iron Man, The Incredible Hulk, Thor, Captain America, Hawkeye and Black Widow. When global security is threatened by Loki and his cohorts, Nick Fury and his team will need all their powers to save the world from disaster. </t>
+  </si>
+  <si>
+    <t>Peter Parker is an unhappy man: after two years of fighting crime as Spider-Man, his life has begun to fall apart. The girl he loves is engaged to someone else, his grades are slipping, he cannot keep any of his jobs, and on top of it, the newspaper Daily Bugle is attacking him viciously, claiming that Spider-Man is a criminal. He reaches the breaking point and gives up the crime fighter's life, once and for all. But after a failed fusion experiment, eccentric and obsessive scientist Dr. Otto Octavius is transformed into super villain Doctor Octopus, Doc Ock for short, having four long tentacles as extra hands. Peter guesses it might just be time for Spider-Man to return, but would he act upon it?</t>
+  </si>
+  <si>
+    <t>Bella Swan has always been a little bit different. Never one to run with the crowd, Bella never cared about fitting in with the trendy, plastic girls at her Phoenix, Arizona high school. When her mother remarried and Bella chooses to live with her father in the rainy little town of Forks, Washington, she didn't expect much of anything to change. But things do change when she meets the mysterious and dazzlingly beautiful Edward Cullen. For Edward is nothing like any boy she's ever met. He's nothing like anyone she's ever met, period. He's intelligent and witty, and he seems to see straight into her soul. In no time at all, they are swept up in a passionate and decidedly unorthodox romance - unorthodox because Edward really isn't like the other boys. He can run faster than a mountain lion. He can stop a moving car with his bare hands. Oh, and he hasn't aged since 1918. Like all vampires, he's immortal. That's right - vampire. But he doesn't have fangs - that's just in the movies. And he...</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>In 1979, the American embassy in Iran was invaded by Iranian revolutionaries and several Americans were taken hostage. However, six managed to escape to the official residence of the Canadian Ambassador and the CIA was ordered to get them out of the country. With few options, exfiltration expert Tony Mendez devised a daring plan: create a phony Canadian film project looking to shoot in Iran and smuggle the Americans out as its production crew. With the help of some trusted Hollywood contacts, Mendez created the ruse and proceeded to Iran as its associate producer. However, time was running out with the Iranian security forces closing in on the truth while both his charges and the White House had grave doubts about the operation themselves.</t>
+  </si>
+  <si>
+    <t>The story begins as "Don" Vito Corleone, the head of a New York Mafia "family", oversees his daughter's wedding with his wife Carmela. His beloved son Michael has just come home from the war, but does not intend to become part of his father's business. Through Michael's life the nature of the family business becomes clear. The business of the family is just like the head of the family, kind and benevolent to those who give respect, but given to ruthless violence whenever anything stands against the good of the family. Don Vito lives his life in the way of the old country, but times are changing and some don't want to follow the old ways and look out for community and "family". An up and coming rival of the Corleone family wants to start selling drugs in New York, and needs the Don's influence to further his plan. The clash of the Don's fading old world values and the new ways will demand a terrible price, especially from Michael, all for the sake of the family</t>
+  </si>
+  <si>
+    <t>The defense and the prosecution have rested and the jury is filing into the jury room to decide if a young Spanish-American is guilty or innocent of murdering his father. What begins as an open and shut case of murder soon becomes a mini-drama of each of the jurors' prejudices and preconceptions about the trial, the accused, and each other. Based on the play, all of the action takes place on the stage of the jury room.</t>
+  </si>
+  <si>
+    <t>In South Boston, the state police force is waging war on Irish American organized crime. Young undercover cop Billy Costigan is assigned to infiltrate the mob syndicate run by gangland chief Frank Costello. While Billy quickly gains Costello's confidence, Colin Sullivan, a hardened young criminal who has infiltrated the state police as an informer for the syndicate is rising to a position of power in the Special Investigation Unit. Each man becomes deeply consumed by his double life, gathering information about the plans and counter-plans of the operations he has penetrated. But when it becomes clear to both the mob and the police that there's a mole in their midst, Billy and Colin are suddenly in danger of being caught and exposed to the enemy-and each must race to uncover the identity of the other man in time to save himself. But is either willing to turn on the friends and comrades they've made during their long stints undercover?</t>
+  </si>
+  <si>
+    <t>When the DEA shut down its dummy corporation operation codenamed SWORDFISH in 1986, they had generated $400 million which they let sit around; fifteen years of compound interest has swelled it to $9.5 billion. A covert counter-terrorist unit called Black Cell, headed by the duplicitious and suave Gabriel Shear, wants the money to help finance their raise-the-stakes vengeance war against international terrorism, but it's all locked away behind super-encryption. He brings in convicted hacker Stanley Jobson, who only wants to see his daughter Holly again but can't afford the legal fees, to slice into the government mainframes and get the money.</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>Andy Dufresne is a young and successful banker whose life changes drastically when he is convicted and sentenced to life imprisonment for the murder of his wife and her lover. Set in the 1940's, the film shows how Andy, with the help of his friend Red, the prison entrepreneur, turns out to be a most unconventional prisoner.Andy Dufresne is a young and successful banker whose life changes drastically when he is convicted and sentenced to life imprisonment for the murder of his wife and her lover. Set in the 1940's, the film shows how Andy, with the help of his friend Red, the prison entrepreneur, turns out to be a most unconventional prisoner.</t>
+  </si>
+  <si>
+    <t>Batman raises the stakes in his war on crime. With the help of Lieutenant Jim Gordon and District Attorney Harvey Dent, Batman sets out to dismantle the remaining criminal organizations that plague the city streets. The partnership proves to be effective, but they soon find themselves prey to a reign of chaos unleashed by a rising criminal mastermind known to the terrified citizens of Gotham as The Joker.</t>
+  </si>
+  <si>
+    <t>Jules Winnfield and Vincent Vega are two hitmen who are out to retrieve a suitcase stolen from their employer, mob boss Marsellus Wallace. Wallace has also asked Vincent to take his wife Mia out a few days later when Wallace himself will be out of town. Butch Coolidge is an aging boxer who is paid by Wallace to lose his next fight. The lives of these seemingly unrelated people are woven together comprising of a series of funny, bizarre and uncalled-for incidents.</t>
+  </si>
+  <si>
+    <t>End Game</t>
+  </si>
+  <si>
+    <t>Brad Mayfield (Kurt Angle) is a vicious criminal who takes pleasure in kidnapping, assault and deranged murder. Officer Dan Burk is trying to stop his lust for blood, while the stakes of the game quickly rise because of Burk's romantic involvement with a beautiful woman. She is Mayfield's next victim. When Burk's girlfriend and his daughter are kidnapped, the case goes from just a job to a race against time to save his family.</t>
+  </si>
+  <si>
+    <t>Cuba Gooding Jr., Angie Harmon, James Woods</t>
+  </si>
+  <si>
+    <t>Sorority Wars</t>
+  </si>
+  <si>
+    <t>Katie (Lucy Hale) and Sara (Phoebe Strole) have been friends since childhood. They enter college together, where Katie is a prized legacy candidate for the Delta sorority, which was co-founded decades ago by her mother, Lutie (Courtney Thorne-Smith) and Summer (Faith Ford), whose own daughter Gwen (Amanda Schull) now leads the Deltas on campus. Events occur during pledge week to cause a rift between Katie and the Deltas, which leaves Sara as a Delta pledge and Katie out in the cold. Katie joins the rival Kappa sorority, and the rivalry splits not just Katie and Sara, but extends all the way into the Delta alumnae association led by Lutie and Summer.</t>
+  </si>
+  <si>
+    <t>Lucy Hale, Courtney Thorne-Smith, Amanda Schull</t>
+  </si>
+  <si>
+    <t>The Twilight Saga: New Moon</t>
+  </si>
+  <si>
+    <t>After Bella recovers from the vampire attack that almost claimed her life, she looks to celebrate her birthday with Edward and his family. However, a minor accident during the festivities results in Bella's blood being shed, a sight that proves too intense for the Cullens, who decide to leave the town of Forks, Washington for Bella and Edward's sake. Initially heartbroken, Bella finds a form of comfort in reckless living, as well as an even-closer friendship with Jacob Black. Danger in different forms awaits</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>When his brother is killed in a robbery, paraplegic Marine Jake Sully decides to take his place in a mission on the distant world of Pandora. There he learns of greedy corporate figurehead Parker Selfridge's intentions of driving off the native humanoid "Na'vi" in order to mine for the precious material scattered throughout their rich woodland. In exchange for the spinal surgery that will fix his legs, Jake gathers intel for the cooperating military unit spearheaded by gung-ho Colonel Quaritch, while simultaneously attempting to infiltrate the Na'vi people with the use of an "avatar" identity. While Jake begins to bond with the native tribe and quickly falls in love with the beautiful alien Neytiri, the restless Colonel moves forward with his ruthless extermination tactics, forcing the soldier to take a stand - and fight back in an epic battle for the fate of Pandora.</t>
+  </si>
+  <si>
+    <t>Sam Worthington, Zoe Saldana, Sigourney Weaver</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Nina (Portman) is a ballerina in a New York City ballet company whose life, like all those in her profession, is completely consumed with dance. She lives with her obsessive former ballerina mother Erica (Hershey) who exerts a suffocating control over her. When artistic director Thomas Leroy (Cassel) decides to replace prima ballerina Beth MacIntyre (Ryder) for the opening production of their new season, Swan Lake, Nina is his first choice. But Nina has competition: a new dancer, Lily (Kunis), who impresses Leroy as well. Swan Lake requires a dancer who can play both the White Swan with innocence and grace, and the Black Swan, who represents guile and sensuality. Nina fits the White Swan role perfectly but Lily is the personification of the Black Swan. As the two young dancers expand their rivalry into a twisted friendship, Nina begins to get more in touch with her dark side - a recklessness that threatens to destroy her.</t>
+  </si>
+  <si>
+    <t>Natalie Portman, Mila Kunis, Vincent Cassel</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast</t>
+  </si>
+  <si>
+    <t>Detective Catherine Chandler (Kristin Kreuk), shaken to the core over the fact that everything she thought she knew about her life has been a lie, is determined to get answers to the secrets that have been revealed about her family. Cat must also try to navigate her evolving relationship with handsome doctor Vincent Keller (Jay Ryan), who struggles with becoming a terrifying beast when he is enraged, unable to control his super-strength and heightened senses. Cat and Vincent continue to grapple with the desire to be a normal couple while trying to keep a low profile in order to stay one step ahead of the mysterious organization known as Muirfield, now on the hunt for both of them.</t>
+  </si>
+  <si>
+    <t>Kristin Kreuk, Jay Ryan, Nina Lisandrello</t>
+  </si>
+  <si>
+    <t>The Twilight Saga: Eclipse</t>
+  </si>
+  <si>
+    <t>Bella once again finds herself surrounded by danger as Seattle is ravaged by a string of mysterious killings and a malicious vampire continues her quest for revenge. In the midst of it all, she is forced to choose between her love for Edward and her friendship with Jacob -- knowing that her decision has the potential to ignite the struggle between vampire and werewolf. With her graduation quickly approaching, Bella is confronted with the most important decision of her life.</t>
+  </si>
+  <si>
+    <t>Kristen Stewart, Robert Pattinson, Taylor Lautner</t>
+  </si>
+  <si>
+    <t>Coraline</t>
+  </si>
+  <si>
+    <t>When Coraline moves to an old house, she feels bored and neglected by her parents. She finds a hidden door with a bricked up passage. During the night, she crosses the passage and finds a parallel world where everybody has buttons instead of eyes, with caring parents and all her dreams coming true. When the Other Mother invites Coraline to stay in her world forever, the girl refuses and finds that the alternate reality where she is trapped is only a trick to lure her.</t>
+  </si>
+  <si>
+    <t>Dakota Fanning, Teri Hatcher, John Hodgman</t>
+  </si>
+  <si>
+    <t>Unstoppable</t>
+  </si>
+  <si>
+    <t>The deranged military and former CIA agent Dean Cage is in a rehab program, trying to forget the traumatic loss of his best friend Scott in Bosnia. When he dates with his girl-friend and Scott's sister, Detective Amy Knight, in a dinning restaurant, he is mistakenly taken as being the CIA agent that is investigating the robbery of the military experiment EX by a man called Sullivan. He is injected with the drug and abducted by the thieves. Amy has six hours to find the also stolen antidote and save Dean's life.</t>
+  </si>
+  <si>
+    <t>Wesley Snipes, Jacqueline Obradors, Stuart Wilson</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>Father Greg Pilkington (Linus Roache) is torn between his call as a conservative Catholic priest and his secret life as a homosexual with a gay lover, frowned upon by the Church. Upon hearing the confession of a young girl of her incestuous father, Greg enters an intensely emotional spiritual struggle deciding between choosing morals over religion and one life over another.</t>
+  </si>
+  <si>
+    <t>Linus Roache, Tom Wilkinson, Robert Carlyle</t>
+  </si>
+  <si>
+    <t>Fight Club</t>
+  </si>
+  <si>
+    <t>A ticking-time-bomb insomniac and a slippery soap salesman channel primal male aggression into a shocking new form of therapy. Their concept catches on, with underground "fight clubs" forming in every town, until an eccentric gets in the way and ignites an out-of-control spiral toward oblivion.A ticking-time-bomb insomniac and a slippery soap salesman channel primal male aggression into a shocking new form of therapy. Their concept catches on, with underground "fight clubs" forming in every town, until an eccentric gets in the way and ignites an out-of-control spiral toward oblivion.</t>
+  </si>
+  <si>
+    <t>Brad Pitt, Edward Norton, Helena Bonham Carter</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Dom Cobb is a skilled thief, the absolute best in the dangerous art of extraction, stealing valuable secrets from deep within the subconscious during the dream state, when the mind is at its most vulnerable. Cobb's rare ability has made him a coveted player in this treacherous new world of corporate espionage, but it has also made him an international fugitive and cost him everything he has ever loved. Now Cobb is being offered a chance at redemption. One last job could give him his life back but only if he can accomplish the impossible-inception. Instead of the perfect heist, Cobb and his team of specialists have to pull off the reverse: their task is not to steal an idea but to plant one. If they succeed, it could be the perfect crime. But no amount of careful planning or expertise can prepare the team for the dangerous enemy that seems to predict their every move. An enemy that only Cobb could have seen coming</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Joseph Gordon-Levitt, Ellen Page</t>
+  </si>
+  <si>
+    <t>Forest Gump</t>
+  </si>
+  <si>
+    <t>Forrest Gump is a simple man with a low I.Q. but good intentions. He is running through childhood with his best and only friend Jenny. His 'mama' teaches him the ways of life and leaves him to choose his destiny. Forrest joins the army for service in Vietnam, finding new friends called Dan and Bubba, he wins medals, creates a famous shrimp fishing fleet, inspires people to jog, starts a ping-pong craze, create the smiley, write bumper stickers and songs, donating to people and meeting the president several times. However, this is all irrelevant to Forrest who can only think of his childhood sweetheart Jenny Curran. Who has messed up her life. Although in the end all he wants to prove is that anyone can love anyone.</t>
+  </si>
+  <si>
+    <t>Tom Hanks, Robin Wright, Gary Sinise</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>Goodfellas</t>
+  </si>
+  <si>
+    <t>Henry Hill is a small time gangster, who takes part in a robbery with Jimmy Conway and Tommy De Vito, two other gangsters who have set their sights a bit higher. His two partners kill off everyone else involved in the robbery, and slowly start to climb up through the hierarchy of the Mob. Henry, however, is badly affected by his partners success, but will he stoop low enough to bring about the downfall of Jimmy and Tommy?</t>
+  </si>
+  <si>
+    <t>Robert De Niro, Ray Liotta, Joe Pesci</t>
+  </si>
+  <si>
+    <t>The Matrix</t>
+  </si>
+  <si>
+    <t>Thomas A. Anderson is a man living two lives. By day he is an average computer programmer and by night a hacker known as Neo. Neo has always questioned his reality, but the truth is far beyond his imagination. Neo finds himself targeted by the police when he is contacted by Morpheus, a legendary computer hacker branded a terrorist by the government. Morpheus awakens Neo to the real world, a ravaged wasteland where most of humanity have been captured by a race of machines that live off of the humans' body heat and electrochemical energy and who imprison their minds within an artificial reality known as the Matrix. As a rebel against the machines, Neo must return to the Matrix and confront the agents: super-powerful computer programs devoted to snuffing out Neo and the entire human rebellion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keanu Reeves, Laurence Fishburne, Carrie-Anne </t>
+  </si>
+  <si>
+    <t>The Usual Suspects</t>
+  </si>
+  <si>
+    <t>Following a truck hijack in New York, five conmen are arrested and brought together for questioning. As none of them is guilty, they plan a revenge operation against the police. The operation goes well, but then the influence of a legendary mastermind criminal called Keyser Söze is felt. It becomes clear that each one of them has wronged Söze at some point and must pay back now. The payback job leaves 27 men dead in a boat explosion, but the real question arises now: Who actually is Keyser Söze?</t>
+  </si>
+  <si>
+    <t>Kevin Spacey, Gabriel Byrne, Chazz Palminteri</t>
+  </si>
+  <si>
+    <t>Memento</t>
+  </si>
+  <si>
+    <t>Memento chronicles two separate stories of Leonard, an ex-insurance investigator who can no longer build new memories, as he attempts to find the murderer of his wife, which is the last thing he remembers. One story line moves forward in time while the other tells the story backwards revealing more each time.</t>
+  </si>
+  <si>
+    <t>Guy Pearce, Carrie-Anne Moss, Joe Pantoliano</t>
+  </si>
+  <si>
+    <t>Terminator 2: Judgement Day</t>
+  </si>
+  <si>
+    <t>Almost 10 years have passed since the first cyborg called The Terminator tried to kill Sarah Connor and her unborn son, John Connor. John Connor, the future leader of the human resistance, is now a healthy young boy. However another Terminator is sent back through time called the T-1000, which is more advanced and more powerful than its predecessor. The Mission: to kill John Connor when he's still a child. However, Sarah and John do not have to face this threat of a Terminator alone. Another Terminator is also sent back through time. The mission: to protect John and Sarah Connor at all costs. The battle for tomorrow has begun...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arnold Schwarzenegger, Linda Hamilton, Edward </t>
+  </si>
+  <si>
+    <t>The Pianist</t>
+  </si>
+  <si>
+    <t>A brilliant pianist, a Polish Jew, witnesses the restrictions Nazis place on Jews in the Polish capital, from restricted access to the building of the Warsaw ghetto. As his family is rounded up to be shipped off to the Nazi labor camps, he escapes deportation and eludes capture by living in the ruins of Warsaw</t>
+  </si>
+  <si>
+    <t>Adrien Brody, Thomas Kretschmann, Frank Finlay</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>Maximus is a powerful Roman general, loved by the people and the aging Emperor, Marcus Aurelius. Before his death, the Emperor chooses Maximus to be his heir over his own son, Commodus, and a power struggle leaves Maximus and his family condemned to death. The powerful general is unable to save his family, and his loss of will allows him to get captured and put into the Gladiator games until he dies. The only desire that fuels him now is the chance to rise to the top so that he will be able to look into the eyes of the man who will feel his revenge.</t>
+  </si>
+  <si>
+    <t>Russell Crowe, Joaquin Phoenix, Connie Nielsen</t>
+  </si>
+  <si>
+    <t>Back To The Future</t>
+  </si>
+  <si>
+    <t>Marty McFly, a typical American teenager of the Eighties, is accidentally sent back to 1955 in a plutonium-powered DeLorean "time machine" invented by slightly mad scientist. During his often hysterical, always amazing trip back in time, Marty must make certain his teenage parents-to-be meet and fall in love - so he can get back to the future.</t>
+  </si>
+  <si>
+    <t>Michael J. Fox, Christopher Lloyd, Lea Thompson</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former dentist, Dr. King Schultz, buys the freedom of a slave, Django, and trains him with the intent to make him his deputy bounty hunter. Instead, he is led to the site of Django's wife who is under the hands of Calvin Candie, a ruthless plantation owner.Former dentist, Dr. King Schultz, buys the freedom of a slave, Django, and trains him with the intent to make him his deputy bounty hunter. Instead, he is led to the site of Django's wife who is under the hands of Calvin Candie, a ruthless plantation owner. </t>
+  </si>
+  <si>
+    <t>Jamie Foxx, Christoph Waltz, Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>The Prestige</t>
+  </si>
+  <si>
+    <t>In the end of the Nineteenth Century, in London, Robert Angier, his beloved wife Julia McCullough and Alfred Borden are friends and assistants of a magician. When Julia accidentally dies during a performance, Robert blames Alfred for her death and they become enemies. Both become famous and rival magicians, sabotaging the performance of the other on the stage. When Alfred performs a successful trick, Robert becomes obsessed trying to disclose the secret of his competitor with tragic consequences.</t>
+  </si>
+  <si>
+    <t>Christian Bale, Hugh Jackman, Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>The Lion King</t>
+  </si>
+  <si>
+    <t>A lion prince, Simba, is born in Africa and the animals of the Pride Lands pay tribute. Later Simba is told by his father, King Mufasa, that when Mufasa dies, Simba will become King of the Pride Lands. Simba's Uncle Scar would have been king after Mufasa had Mufasa not had a child. Fuelled by rage, Scar plots to kill Mufasa and Simba so he is able to take over the throne. He uses the hyenas to cause a stampede through the canyon where Mufasa and Simba are, and personally ensures Mufasa falls to his death. Simba survives so Scar implies that the stampede was Simba's fault and that the pride will blame him. Simba flees the Pride Lands meaning never to return home. Simba is found, collapsed with exhaustion, by Timon the Meerkat, and Pumbaa the Warthog, and the trio become fast friends. Simba stays with them well into adulthood until his childhood friend, Nala, hunting beyond the Pride Lands that herds had deserted under Scar's mismanagement stumbles upon Simba's new home.</t>
+  </si>
+  <si>
+    <t>Matthew Broderick, Jeremy Irons, James Earl Jones</t>
+  </si>
+  <si>
+    <t>WALL E</t>
+  </si>
+  <si>
+    <t>In a distant, but not so unrealistic, future where mankind has abandoned earth because it has become covered with trash from products sold by the powerful multi-national Buy N Large corporation, WALL-E, a garbage collecting robot has been left to clean up the mess. Mesmerized with trinkets of Earth's history and show tunes, WALL-E is alone on Earth except for a sprightly pet cockroach. One day, EVE, a sleek (and dangerous) reconnaissance robot, is sent to Earth to find proof that life is once again sustainable. WALL-E falls in love with EVE. WALL-E rescues EVE from a dust storm and shows her a living plant he found amongst the rubble. Consistent with her "directive", EVE takes the plant and automatically enters a deactivated state except for a blinking green beacon. WALL-E, doesn't understand what has happened to his new friend, but, true to his love, he protects her from wind, rain, and lightning, even as she is unresponsive. One day a massive ship comes to reclaim EVE, but WALL-E,</t>
+  </si>
+  <si>
+    <t>Ben Burtt, Elissa Knight, Jeff Garlin</t>
+  </si>
+  <si>
+    <t>Toy Story 3</t>
+  </si>
+  <si>
+    <t>Woody, Buzz and the whole gang are back. As their owner Andy prepares to depart for college, his loyal toys find themselves in daycare where untamed tots with their sticky little fingers do not play nice. So, it's all for one and one for all as they join Barbie's counterpart Ken, a thespian hedgehog named Mr. Pricklepants and a pink, strawberry-scented teddy bear called Lots-o'-Huggin' Bear to plan their great escape</t>
+  </si>
+  <si>
+    <t>Tom Hanks, Tim Allen, Joan Cusack</t>
+  </si>
+  <si>
+    <t>Taxi Driver</t>
+  </si>
+  <si>
+    <t>Travis Bickle is an ex-Marine and Vietnam War veteran living in New York City. As he suffers from insomnia, he spends his time working as a taxi driver at night, watching porn movies at seedy cinemas during the day, or thinking about how the world, New York in particular, has deteriorated into a cesspool. He's a loner who has strong opinions about what is right and wrong with mankind. For him, the one bright spot in New York humanity is Betsy, a worker on the presidential nomination campaign of Senator Charles Palantine. He becomes obsessed with her. After an incident with her, he believes he has to do whatever he needs to make the world a better place in his opinion. One of his priorities is to be the savior for Iris, a twelve-year-old runaway and prostitute who he believes wants out of the profession and under the thumb of her pimp and lover Matthew.</t>
+  </si>
+  <si>
+    <t>Robert De Niro, Jodie Foster, Cybill Shepherd</t>
+  </si>
+  <si>
+    <t>Reservoir Dogs</t>
+  </si>
+  <si>
+    <t>Six criminals, who are strangers to each other, are hired by a crime boss, Joe Cabot, to carry out a diamond robbery. Right at the outset, they are given false names with the intention that they won't get too close and will concentrate on the job instead. They are completely sure that the robbery is going to be a success. But, when the police show up right at the time and the site of the robbery, panic spreads amongst the group members, and one of them is killed in the subsequent shootout, along with a few policemen and civilians. When the remaining people assemble at the premeditated rendezvous point (a warehouse), they begin to suspect that one of them is an undercover cop.</t>
+  </si>
+  <si>
+    <t>Harvey Keitel, Tim Roth, Michael Madsen</t>
+  </si>
+  <si>
+    <t>Snatch</t>
+  </si>
+  <si>
+    <t>Turkish and his close friend/accomplice Tommy get pulled into the world of match fixing by the notorious Brick Top. Things get complicated when the boxer they had lined up gets badly beaten by Pitt, a 'pikey' ( slang for an Irish Gypsy)- who comes into the equation after Turkish, an unlicensed boxing promoter wants to buy a caravan off the Irish Gypsies. They then try to convince Pitt not only to fight for them, but to lose for them too. Whilst all this is going on, a huge diamond heist takes place, and a fistful of motley characters enter the story, including 'Cousin Avi', 'Boris The Blade', 'Franky Four Fingers' and 'Bullet Tooth Tony'. Things go from bad to worse as it all becomes about the money, the guns, and the damned dog!</t>
+  </si>
+  <si>
+    <t>Jason Statham, Brad Pitt, Benicio Del Toro</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>Inglorious Bastards</t>
+  </si>
+  <si>
+    <t>In Nazi-occupied France, young Jewish refugee Shosanna Dreyfus witnesses the slaughter of her family by Colonel Hans Landa. Narrowly escaping with her life, she plots her revenge several years later when German war hero Fredrick Zoller takes a rapid interest in her and arranges an illustrious movie premiere at the theater she now runs. With the promise of every major Nazi officer in attendance, the event catches the attention of the "Basterds", a group of Jewish-American guerilla soldiers led by the ruthless Lt. Aldo Raine. As the relentless executioners advance and the conspiring young girl's plans are set in motion, their paths will cross for a fateful evening that will shake the very annals of history.</t>
+  </si>
+  <si>
+    <t>Brad Pitt, Diane Kruger, Eli Roth</t>
+  </si>
+  <si>
+    <t>The Wolf of Wall Street</t>
+  </si>
+  <si>
+    <t>In The Wolf of Wall Street DiCaprio plays Belfort, a Long Island penny stockbroker who served 36 months in prison for defrauding investors in a massive 1990s securities scam that involved widespread corruption on Wall Street and in the corporate banking world, including shoe designer Steve Madden.</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Jonah Hill, Margot Robbie</t>
+  </si>
+  <si>
+    <t>Scarface</t>
+  </si>
+  <si>
+    <t>Tony Montana manages to leave Cuba during the Mariel exodus of 1980. He finds himself in a Florida refugee camp but his friend Manny has a way out for them: undertake a contract killing and arrangements will be made to get a green card. He's soon working for drug dealer Frank Lopez and shows his mettle when a deal with Columbian drug dealers goes bad. He also brings a new level of violence to Miami. Tony is protective of his younger sister but his mother knows what he does for a living and disowns him. Tony is impatient and wants it all however, including Frank's empire and his mistress Elvira Hancock. Once at the top however, Tony's outrageous actions make him a target and everything comes crumbling down.</t>
+  </si>
+  <si>
+    <t>Al Pacino, Michelle Pfeiffer, Steven Bauer</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>A young Carl Fredrickson meets a young adventure-spirited girl named Ellie. They both dream of going to a lost land in South America. 70 years later, Ellie has died. Carl remembers the promise he made to her. Then, when he inadvertently hits a construction worker, he is forced to go to a retirement home. But before they can take him, he and his house fly away. However, he has a stowaway aboard: an 8-year-old boy named Russell, who's trying to get an Assisting the Elderly badge. Together, they embark on an adventure, where they encounter talking dogs, an evil villain and a rare bird named Kevin.</t>
+  </si>
+  <si>
+    <t>Edward Asner, Jordan Nagai, John Ratzenberger</t>
+  </si>
+  <si>
+    <t>Die Hard</t>
+  </si>
+  <si>
+    <t>New York City Detective John McClane has just arrived in Los Angeles to spend Christmas with his wife. Unfortunatly, it is not going to be a Merry Christmas for everyone. A group of terrorists, led by Hans Gruber is holding everyone in the Nakatomi Plaza building hostage. With no way of anyone getting in or out, it's up to McClane to stop them all. All 12!New York City Detective John McClane has just arrived in Los Angeles to spend Christmas with his wife. Unfortunatly, it is not going to be a Merry Christmas for everyone. A group of terrorists, led by Hans Gruber is holding everyone in the Nakatomi Plaza building hostage. With no way of anyone getting in or out, it's up to McClane to stop them all. All 12!</t>
+  </si>
+  <si>
+    <t>Bruce Willis, Alan Rickman, Bonnie Bedelia</t>
+  </si>
+  <si>
+    <t>3 Idiots</t>
+  </si>
+  <si>
+    <t>Farhan Qureshi and Raju Rastogi want to re-unite with their fellow collegian, Rancho, after faking a stroke aboard an Air India plane, and excusing himself from his wife - trouser less - respectively. Enroute, they encounter another student, Chatur Ramalingam, now a successful businessman, who reminds them of a bet they had undertaken 10 years ago. The trio, while recollecting hilarious antics, including their run-ins with the Dean of Delhi's Imperial College of Engineering, Viru Sahastrabudhe, race to locate Rancho, at his last known address - little knowing the secret that was kept from them all this time.</t>
+  </si>
+  <si>
+    <t>Aamir Khan, Madhavan, Mona Singh</t>
+  </si>
+  <si>
+    <t>How to Train Your Dragon</t>
+  </si>
+  <si>
+    <t>Long ago up North on the Island of Berk, the young Viking, Hiccup, wants to join his town's fight against the dragons that continually raid their town. However, his macho father and village leader, Stoik the Vast, will not allow his small, clumsy, but inventive son to do so. Regardless, Hiccup ventures out into battle and downs a mysterious Night Fury dragon with his invention, but can't bring himself to kill it. Instead, Hiccup and the dragon, whom he dubs Toothless, begin a friendship that would open up both their worlds as the observant boy learns that his people have misjudged the species. But even as the two each take flight in their own way, they find that they must fight the destructive ignorance plaguing their world.</t>
+  </si>
+  <si>
+    <t>Jay Baruchel, Gerard Butler, Christopher Mintz-Plasse</t>
+  </si>
+  <si>
+    <t>The Sixth Sense</t>
+  </si>
+  <si>
+    <t>Malcom Crowe is a child psychologist who receives an award on the same night that he is visited by a very unhappy ex-patient. After this encounter, Crowe takes on the task of curing a young boy with the same ills as the ex-patient. This boy "sees dead people". Crowe spends a lot of time with the boy (Cole) much to the dismay of his wife. Cole's mom is at her wit's end with what to do about her son's increasing problems. Crowe is the boy's only hope.</t>
+  </si>
+  <si>
+    <t>Bruce Willis, Haley Joel Osment, Toni Collette</t>
+  </si>
+  <si>
+    <t>Million Dollar Baby</t>
+  </si>
+  <si>
+    <t>Frankie Dunn has trained and managed some incredible fighters during a lifetime spent in the ring. The most important lesson he teaches his boxers is the one that rules life: above all, always protect yourself. In the wake of a painful estrangement from his daughter, Frankie has been unwilling to let himself get close to anyone for a very long time. His only friend, Scrap, an ex-boxer who looks after Frankie's gym, knows that beneath his gruff exterior is a man who has been seeking, for the past 25 years, the forgiveness that somehow continues to elude him. Then Maggie Fitzgerald walks into his gym...</t>
+  </si>
+  <si>
+    <t>Hilary Swank, Clint Eastwood, Morgan Freeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hachiko </t>
+  </si>
+  <si>
+    <t>In Bedridge, Professor Parker Wilson finds an abandoned dog at the train station and takes it home with the intention of returning the animal to its owner. He finds that the dog is an Akita and names it Hachiko. However, nobody claims the dog so his family decides to keep Hachi.In Bedridge, Professor Parker Wilson finds an abandoned dog at the train station and takes it home with the intention of returning the animal to its owner. He finds that the dog is an Akita and names it Hachiko. However, nobody claims the dog so his family decides to keep Hachi.</t>
+  </si>
+  <si>
+    <t>Richard Gere, Joan Allen, Cary-Hiroyuki Tagawa</t>
+  </si>
+  <si>
+    <t>The Bourne Ultimatum</t>
+  </si>
+  <si>
+    <t>Bourne is once again brought out of hiding, this time inadvertently by London-based reporter Simon Ross who is trying to unveil Operation Blackbriar--an upgrade to Project Treadstone--in a series of newspaper columns. Bourne sets up a meeting with Ross and realizes instantly they're being scanned. Information from the reporter stirs a new set of memories, and Bourne must finally, ultimately, uncover his dark past whilst dodging The Company's best efforts in trying to eradicate him.</t>
+  </si>
+  <si>
+    <t>Matt Damon, Édgar Ramírez, Joan Allen</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Dr. Ryan Stone (Sandra Bullock) is a brilliant medical engineer on her first shuttle mission, with veteran astronaut Matt Kowalsky (George Clooney) in command of his last flight before retiring. But on a seemingly routine spacewalk, disaster strikes. The shuttle is destroyed, leaving Stone and Kowalsky completely alone - tethered to nothing but each other and spiraling out into the blackness.</t>
+  </si>
+  <si>
+    <t>Sandra Bullock, George Clooney, Ed Harris</t>
+  </si>
+  <si>
+    <t>Lagaan</t>
+  </si>
+  <si>
+    <t>This is the story about the resilience shown by the Indians when they were under the British Rule. They are already taxed to the bone by the British and their cronies, but when Jack Russell announces that he will double the Lagaan (tax) from all villagers, they decide to oppose it. Leading the villagers is a handsome young man named Bhuvan, who challenges them to a game of cricket, a game that is to be played by veteran British cricket players, versus villagers, including Bhuvan himself, who have never played this game before, and do not even know a bat from a piece of wood. As the challenge is accepted, the interest grows and attracts Indians from all over the region, as well as the British from all over the country - as everyone gathers to see the 'fair play' that the British will display against their counter-parts, who are aided by none other than the sister, Elizabeth, of Captain Rusell.</t>
+  </si>
+  <si>
+    <t>Aamir Khan, Gracy Singh, Rachel Shelley</t>
+  </si>
+  <si>
+    <t>Shutter Island</t>
+  </si>
+  <si>
+    <t>It's 1954, and up-and-coming U.S. marshal Teddy Daniels is assigned to investigate the disappearance of a patient from Boston's Shutter Island Ashecliffe Hospital. He's been pushing for an assignment on the island for personal reasons, but before long he wonders whether he hasn't been brought there as part of a twisted plot by hospital doctors whose radical treatments range from unethical to illegal to downright sinister. Teddy's shrewd investigating skills soon provide a promising lead, but the hospital refuses him access to records he suspects would break the case wide open. As a hurricane cuts off communication with the mainland, more dangerous criminals "escape" in the confusion, and the puzzling, improbable clues multiply, Teddy begins to doubt everything - his memory, his partner, even his own sanity.</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Emily Mortimer, Mark Ruffalo</t>
   </si>
 </sst>
 </file>
@@ -216,8 +636,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,15 +933,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D18"/>
+      <selection sqref="A1:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,243 +954,1208 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2013</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2014</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2013</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2011</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1999</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2013</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2012</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>2002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>2008</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>2012</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1972</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1957</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>2006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1994</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2008</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1994</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E19">
+        <v>2006</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <v>5.9</v>
+      </c>
+      <c r="E20">
+        <v>2009</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E21">
+        <v>2009</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <v>7.9</v>
+      </c>
+      <c r="E22">
+        <v>2009</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>2010</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>7.2</v>
+      </c>
+      <c r="E24">
+        <v>2012</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E25">
+        <v>2010</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>7.9</v>
+      </c>
+      <c r="E26">
+        <v>2009</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E27">
+        <v>2004</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>7.3</v>
+      </c>
+      <c r="E28">
+        <v>1994</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>8.9</v>
+      </c>
+      <c r="E29">
+        <v>1999</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E30">
+        <v>2010</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E31">
+        <v>1994</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E32">
+        <v>1990</v>
+      </c>
+      <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E33">
+        <v>1999</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E34">
+        <v>1995</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>8.5</v>
+      </c>
+      <c r="E35">
+        <v>2000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36">
+        <v>8.5</v>
+      </c>
+      <c r="E36">
+        <v>1991</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37">
+        <v>8.5</v>
+      </c>
+      <c r="E37">
+        <v>2002</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38">
+        <v>8.5</v>
+      </c>
+      <c r="E38">
+        <v>2000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39">
+        <v>8.5</v>
+      </c>
+      <c r="E39">
+        <v>1985</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40">
+        <v>8.5</v>
+      </c>
+      <c r="E40">
+        <v>2012</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41">
+        <v>8.5</v>
+      </c>
+      <c r="E41">
+        <v>2006</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42">
+        <v>8.5</v>
+      </c>
+      <c r="E42">
+        <v>1994</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43">
+        <v>8.5</v>
+      </c>
+      <c r="E43">
+        <v>2008</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44">
+        <v>8.5</v>
+      </c>
+      <c r="E44">
+        <v>2010</v>
+      </c>
+      <c r="F44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45">
+        <v>8.4</v>
+      </c>
+      <c r="E45">
+        <v>1976</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46">
+        <v>8.4</v>
+      </c>
+      <c r="E46">
+        <v>1992</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47">
+        <v>8.4</v>
+      </c>
+      <c r="E47">
+        <v>2000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E48">
+        <v>2009</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>156</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49">
+        <v>8.4</v>
+      </c>
+      <c r="E49">
+        <v>2013</v>
+      </c>
+      <c r="F49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E50">
+        <v>1983</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E51">
+        <v>2009</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E52">
+        <v>1988</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53">
+        <v>8.5</v>
+      </c>
+      <c r="E53">
+        <v>2009</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E54">
+        <v>2010</v>
+      </c>
+      <c r="F54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E55">
+        <v>1999</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56">
+        <v>8.1</v>
+      </c>
+      <c r="E56">
+        <v>2004</v>
+      </c>
+      <c r="F56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E57">
+        <v>2009</v>
+      </c>
+      <c r="F57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58">
+        <v>8.1</v>
+      </c>
+      <c r="E58">
+        <v>2007</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59">
+        <v>8.1</v>
+      </c>
+      <c r="E59">
+        <v>2013</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E60">
+        <v>2001</v>
+      </c>
+      <c r="F60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61">
+        <v>8.1</v>
+      </c>
+      <c r="E61">
+        <v>2010</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
